--- a/carte_UE/data/téléchargement_indicateur_européens.xlsx
+++ b/carte_UE/data/téléchargement_indicateur_européens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noack\gitCereq\cereq-dataviz\carte_UE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B546A51-F28D-4E61-8231-40B50E6A159F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E0792F-BFC5-4875-97D5-510371BC5B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informations" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="114">
   <si>
     <t>NAME_FREN</t>
   </si>
@@ -436,6 +436,9 @@
   <si>
     <t>Nombre d'heures de cours et stages : Durée moyenne de formation par stagiaire</t>
   </si>
+  <si>
+    <t>250 et plus</t>
+  </si>
 </sst>
 </file>
 
@@ -843,7 +846,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1013,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
